--- a/output/compo fish/Mann_Whitney_test_fish_prey_not_prey_absolute.xlsx
+++ b/output/compo fish/Mann_Whitney_test_fish_prey_not_prey_absolute.xlsx
@@ -26,19 +26,19 @@
     <t xml:space="preserve">As</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">Ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Co</t>
   </si>
   <si>
     <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.483821005660702</v>
+        <v>0.0115848507956819</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -424,32 +424,32 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.259489220400994</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.825838735231449</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006570179633316</v>
+        <v>0.0000000024759263985344</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -457,10 +457,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0240610482235163</v>
+        <v>0.000000409238204905671</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.111593265382144</v>
+        <v>0.000376151153428099</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -479,10 +479,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0265247486658603</v>
+        <v>0.000000421170671648155</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0548271771480139</v>
+        <v>0.00000000653948129179547</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -501,10 +501,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00516221964918869</v>
+        <v>0.00000000000000351026476366919</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.148029433187495</v>
+        <v>0.0339233039070592</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -523,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.64947401019173</v>
+        <v>0.0141541530448233</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.15838120917116</v>
+        <v>0.000000043633789126392</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.082450087273079</v>
+        <v>0.0000000684745185171894</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
